--- a/metrics/config/template.xlsx
+++ b/metrics/config/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Documents/application/Dataverse_Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Dataverse-Report/metrics/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1A571E-A257-574C-BB4C-5F6A69538580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="11980"/>
+    <workbookView xWindow="700" yWindow="500" windowWidth="16320" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAQ" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Tab</t>
   </si>
@@ -86,9 +87,6 @@
     <t>Totals</t>
   </si>
   <si>
-    <t>The number of users by affiliation over the one year time period</t>
-  </si>
-  <si>
     <t>All time</t>
   </si>
   <si>
@@ -126,12 +124,21 @@
   </si>
   <si>
     <t>FAQ</t>
+  </si>
+  <si>
+    <t>The number of new users by affiliation over the one year time period</t>
+  </si>
+  <si>
+    <t>Month - Year</t>
+  </si>
+  <si>
+    <t>The number of new users by affiliation over the month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,11 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -620,7 +627,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -640,7 +647,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -667,7 +674,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -676,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -694,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -717,20 +724,20 @@
     </row>
     <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -739,7 +746,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -748,25 +755,34 @@
         <v>16</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/config/template.xlsx
+++ b/metrics/config/template.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Dataverse-Report/metrics/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1A571E-A257-574C-BB4C-5F6A69538580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF72816-6414-744B-ACAC-21FD16866245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="500" windowWidth="16320" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="500" windowWidth="28260" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAQ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Tab</t>
   </si>
@@ -48,15 +57,9 @@
     <t>Total</t>
   </si>
   <si>
-    <t>The number of dataverse downloads over the one year time period</t>
-  </si>
-  <si>
     <t>All downloads</t>
   </si>
   <si>
-    <t>The total number of dataverse downloads (all time)</t>
-  </si>
-  <si>
     <t>Downloads by Dataset</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
     <t>Path</t>
   </si>
   <si>
-    <t>The hierarchy of dataverses in which the dataset resides</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -93,24 +93,12 @@
     <t>The total number of users by affiliation (all time)</t>
   </si>
   <si>
-    <t>Download statistics relating to institutional dataverses or to dataverses in the root folder</t>
-  </si>
-  <si>
-    <t>Download statistics relating to individual datasets</t>
-  </si>
-  <si>
-    <t>The root dataverse in which the dataset resides (e.g., an institutional dataverse)</t>
-  </si>
-  <si>
     <t>The suffix of the persistent identifier of the dataset (handle or DOI)</t>
   </si>
   <si>
     <t>File Types</t>
   </si>
   <si>
-    <t>Statistics relating to file types for each dataset</t>
-  </si>
-  <si>
     <t>Subjects</t>
   </si>
   <si>
@@ -133,6 +121,42 @@
   </si>
   <si>
     <t>The number of new users by affiliation over the month</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Publication Date</t>
+  </si>
+  <si>
+    <t>Download statistics relating to individual published datasets</t>
+  </si>
+  <si>
+    <t>The original publication date for this dataset</t>
+  </si>
+  <si>
+    <t>The root Dataverse collection in which the dataset resides (e.g., an institutional dataverse)</t>
+  </si>
+  <si>
+    <t>Download statistics relating to institutional Dataverse collections or to Dataverse collections in the root folder</t>
+  </si>
+  <si>
+    <t>Statistics relating to file types for each published dataset</t>
+  </si>
+  <si>
+    <t>The hierarchy of Dataverse collections in which the dataset resides</t>
+  </si>
+  <si>
+    <t>The total number of dataset downloads in this Dataverse collection (all time)</t>
+  </si>
+  <si>
+    <t>The number of dataset downloads in this Dataverse collection over the one year time period</t>
+  </si>
+  <si>
+    <t>The root Dataverse collection in which the dataset resides (e.g., an institutional Dataverse collection)</t>
+  </si>
+  <si>
+    <t>The current status of the dataset (DRAFT means a new draft version of this dataset has been created)</t>
   </si>
 </sst>
 </file>
@@ -612,22 +636,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="71.33203125" customWidth="1"/>
+    <col min="3" max="3" width="95.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -647,7 +671,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -656,133 +680,196 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
-        <v>25</v>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
-        <v>27</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="6" t="s">
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
